--- a/final assignment/results/Policies.xlsx
+++ b/final assignment/results/Policies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ariel\Documents\GitHub\model-based-decision-making\final assignment\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E823309-3D87-45D5-8E30-6FDF527D0E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F892AA-4EA5-4ED0-B9EE-2269A8A30324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="21432" windowHeight="10632" xr2:uid="{ACA65A5D-B46E-434A-9568-3CA3ABF7DB18}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{ACA65A5D-B46E-434A-9568-3CA3ABF7DB18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,20 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Policy</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Narrative</t>
-  </si>
-  <si>
-    <t>Results</t>
-  </si>
-  <si>
     <t>extra protection in upper boundary</t>
   </si>
   <si>
@@ -59,9 +50,6 @@
     <t>extra protection in random locations</t>
   </si>
   <si>
-    <t>Max protection everywhere</t>
-  </si>
-  <si>
     <t xml:space="preserve">No protection </t>
   </si>
   <si>
@@ -80,17 +68,95 @@
     <t>Policy 3</t>
   </si>
   <si>
-    <t>Policy DImax</t>
-  </si>
-  <si>
-    <t>Policy RfRmax</t>
+    <t>RfR</t>
+  </si>
+  <si>
+    <t>Dike Increase</t>
+  </si>
+  <si>
+    <t>EWS</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Policy code</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>No new measures</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Maximum Dike Increase</t>
+  </si>
+  <si>
+    <t>Maximum dike increase in every Dike Ring.</t>
+  </si>
+  <si>
+    <t>EWS max</t>
+  </si>
+  <si>
+    <t>RfR max</t>
+  </si>
+  <si>
+    <t>DI max</t>
+  </si>
+  <si>
+    <t>All Max</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum Room For the River </t>
+  </si>
+  <si>
+    <t>Maximum Early Warning Systems</t>
+  </si>
+  <si>
+    <t>Every Policy at maximum level</t>
+  </si>
+  <si>
+    <t>Di-Ge RfR-Ov max</t>
+  </si>
+  <si>
+    <t>DiGe RfROv mod</t>
+  </si>
+  <si>
+    <t>Maximum dike increase in Gelderland and RfR in Overijssel</t>
+  </si>
+  <si>
+    <t>Moderated dike increase in Gelderland and RfR in Overijssel</t>
+  </si>
+  <si>
+    <t>Comb Green</t>
+  </si>
+  <si>
+    <t>Combination of measures with a green approach</t>
+  </si>
+  <si>
+    <t>Comb Grey</t>
+  </si>
+  <si>
+    <t>Combination of measures with a grey approach</t>
+  </si>
+  <si>
+    <t>Comb Green &amp; EWS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +173,12 @@
     <font>
       <sz val="8"/>
       <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFCE9178"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -131,9 +203,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -450,79 +525,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF9E6C9-B3F3-4C88-8D8C-5BD076F7E849}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/final assignment/results/Policies.xlsx
+++ b/final assignment/results/Policies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ariel\Documents\GitHub\model-based-decision-making\final assignment\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F892AA-4EA5-4ED0-B9EE-2269A8A30324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020411AB-9685-4927-A509-F6558945B387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{ACA65A5D-B46E-434A-9568-3CA3ABF7DB18}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ACA65A5D-B46E-434A-9568-3CA3ABF7DB18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>Description</t>
   </si>
@@ -150,6 +150,33 @@
   </si>
   <si>
     <t>Comb Green &amp; EWS</t>
+  </si>
+  <si>
+    <t>4 days to threat in the region</t>
+  </si>
+  <si>
+    <t>Maximum vlaues for all the levers</t>
+  </si>
+  <si>
+    <t>The Gelderland Province adopts an aggresive grey approach and Overijssel favors RfR</t>
+  </si>
+  <si>
+    <t>The Gelderland Province adopts an moderate grey approach and Overijssel favors RfR</t>
+  </si>
+  <si>
+    <t>Differate</t>
+  </si>
+  <si>
+    <t>Combination</t>
+  </si>
+  <si>
+    <t>The region adopts a green approach just protecting their urban DR</t>
+  </si>
+  <si>
+    <t>DiGe RfROv mod&amp;EWS</t>
+  </si>
+  <si>
+    <t>Moderated dike increase in Gelderland and RfR in Overijssel + EWS</t>
   </si>
 </sst>
 </file>
@@ -525,16 +552,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF9E6C9-B3F3-4C88-8D8C-5BD076F7E849}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="40.77734375" customWidth="1"/>
     <col min="3" max="3" width="36.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
@@ -655,6 +682,9 @@
       <c r="B9" t="s">
         <v>27</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
@@ -666,6 +696,9 @@
       <c r="B10" t="s">
         <v>28</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>25</v>
       </c>
@@ -677,6 +710,12 @@
       <c r="B11" t="s">
         <v>31</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -685,29 +724,67 @@
       <c r="B12" t="s">
         <v>32</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
